--- a/natmiOut/OldD0/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.5211996840267</v>
+        <v>0.3355466666666667</v>
       </c>
       <c r="H2">
-        <v>12.5211996840267</v>
+        <v>1.00664</v>
       </c>
       <c r="I2">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="J2">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N2">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P2">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q2">
-        <v>397.498119246425</v>
+        <v>11.43232536299555</v>
       </c>
       <c r="R2">
-        <v>397.498119246425</v>
+        <v>102.89092826696</v>
       </c>
       <c r="S2">
-        <v>0.4698789155436678</v>
+        <v>0.01235001616378448</v>
       </c>
       <c r="T2">
-        <v>0.4698789155436678</v>
+        <v>0.01235001616378449</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.5211996840267</v>
+        <v>0.3355466666666667</v>
       </c>
       <c r="H3">
-        <v>12.5211996840267</v>
+        <v>1.00664</v>
       </c>
       <c r="I3">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="J3">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N3">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P3">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q3">
-        <v>345.8187986191195</v>
+        <v>9.28977623336</v>
       </c>
       <c r="R3">
-        <v>345.8187986191195</v>
+        <v>83.60798610024</v>
       </c>
       <c r="S3">
-        <v>0.4087892601298825</v>
+        <v>0.01003548123387866</v>
       </c>
       <c r="T3">
-        <v>0.4087892601298825</v>
+        <v>0.01003548123387866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.5211996840267</v>
+        <v>0.3355466666666667</v>
       </c>
       <c r="H4">
-        <v>12.5211996840267</v>
+        <v>1.00664</v>
       </c>
       <c r="I4">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="J4">
-        <v>0.9380080271535653</v>
+        <v>0.02388108083384315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.00912533718287</v>
+        <v>4.125957666666666</v>
       </c>
       <c r="N4">
-        <v>4.00912533718287</v>
+        <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="P4">
-        <v>0.06326156041551678</v>
+        <v>0.06262628758663766</v>
       </c>
       <c r="Q4">
-        <v>50.19905890515759</v>
+        <v>1.384451341857778</v>
       </c>
       <c r="R4">
-        <v>50.19905890515759</v>
+        <v>12.46006207672</v>
       </c>
       <c r="S4">
-        <v>0.05933985148001498</v>
+        <v>0.001495583436180002</v>
       </c>
       <c r="T4">
-        <v>0.05933985148001498</v>
+        <v>0.001495583436180002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.827513036506127</v>
+        <v>12.878362</v>
       </c>
       <c r="H5">
-        <v>0.827513036506127</v>
+        <v>38.635086</v>
       </c>
       <c r="I5">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823987</v>
       </c>
       <c r="J5">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7460091107335</v>
+        <v>34.07074633333333</v>
       </c>
       <c r="N5">
-        <v>31.7460091107335</v>
+        <v>102.212239</v>
       </c>
       <c r="O5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142372</v>
       </c>
       <c r="P5">
-        <v>0.5009327233259827</v>
+        <v>0.5171464495142373</v>
       </c>
       <c r="Q5">
-        <v>26.27023639617425</v>
+        <v>438.7754048908392</v>
       </c>
       <c r="R5">
-        <v>26.27023639617425</v>
+        <v>3948.978644017554</v>
       </c>
       <c r="S5">
-        <v>0.03105380778231485</v>
+        <v>0.4739965991707101</v>
       </c>
       <c r="T5">
-        <v>0.03105380778231485</v>
+        <v>0.4739965991707103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.827513036506127</v>
+        <v>12.878362</v>
       </c>
       <c r="H6">
-        <v>0.827513036506127</v>
+        <v>38.635086</v>
       </c>
       <c r="I6">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823987</v>
       </c>
       <c r="J6">
-        <v>0.06199197284643458</v>
+        <v>0.9165616424823989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.6186633346548</v>
+        <v>27.685497</v>
       </c>
       <c r="N6">
-        <v>27.6186633346548</v>
+        <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.4358057162585005</v>
+        <v>0.420227262899125</v>
       </c>
       <c r="P6">
-        <v>0.4358057162585005</v>
+        <v>0.4202272628991251</v>
       </c>
       <c r="Q6">
-        <v>22.85480396030063</v>
+        <v>356.543852515914</v>
       </c>
       <c r="R6">
-        <v>22.85480396030063</v>
+        <v>3208.894672643226</v>
       </c>
       <c r="S6">
-        <v>0.02701645612861794</v>
+        <v>0.3851641902987048</v>
       </c>
       <c r="T6">
-        <v>0.02701645612861794</v>
+        <v>0.385164190298705</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.878362</v>
+      </c>
+      <c r="H7">
+        <v>38.635086</v>
+      </c>
+      <c r="I7">
+        <v>0.9165616424823987</v>
+      </c>
+      <c r="J7">
+        <v>0.9165616424823989</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.125957666666666</v>
+      </c>
+      <c r="N7">
+        <v>12.377873</v>
+      </c>
+      <c r="O7">
+        <v>0.06262628758663766</v>
+      </c>
+      <c r="P7">
+        <v>0.06262628758663766</v>
+      </c>
+      <c r="Q7">
+        <v>53.13557642800867</v>
+      </c>
+      <c r="R7">
+        <v>478.220187852078</v>
+      </c>
+      <c r="S7">
+        <v>0.05740085301298366</v>
+      </c>
+      <c r="T7">
+        <v>0.05740085301298368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.8368233333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.51047</v>
+      </c>
+      <c r="I8">
+        <v>0.05955727668375805</v>
+      </c>
+      <c r="J8">
+        <v>0.05955727668375806</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>34.07074633333333</v>
+      </c>
+      <c r="N8">
+        <v>102.212239</v>
+      </c>
+      <c r="O8">
+        <v>0.5171464495142372</v>
+      </c>
+      <c r="P8">
+        <v>0.5171464495142373</v>
+      </c>
+      <c r="Q8">
+        <v>28.51119551581444</v>
+      </c>
+      <c r="R8">
+        <v>256.6007596423299</v>
+      </c>
+      <c r="S8">
+        <v>0.03079983417974253</v>
+      </c>
+      <c r="T8">
+        <v>0.03079983417974255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.827513036506127</v>
-      </c>
-      <c r="H7">
-        <v>0.827513036506127</v>
-      </c>
-      <c r="I7">
-        <v>0.06199197284643458</v>
-      </c>
-      <c r="J7">
-        <v>0.06199197284643458</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>4.00912533718287</v>
-      </c>
-      <c r="N7">
-        <v>4.00912533718287</v>
-      </c>
-      <c r="O7">
-        <v>0.06326156041551678</v>
-      </c>
-      <c r="P7">
-        <v>0.06326156041551678</v>
-      </c>
-      <c r="Q7">
-        <v>3.317603481505847</v>
-      </c>
-      <c r="R7">
-        <v>3.317603481505847</v>
-      </c>
-      <c r="S7">
-        <v>0.003921708935501797</v>
-      </c>
-      <c r="T7">
-        <v>0.003921708935501797</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8368233333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.51047</v>
+      </c>
+      <c r="I9">
+        <v>0.05955727668375805</v>
+      </c>
+      <c r="J9">
+        <v>0.05955727668375806</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>27.685497</v>
+      </c>
+      <c r="N9">
+        <v>83.05649099999999</v>
+      </c>
+      <c r="O9">
+        <v>0.420227262899125</v>
+      </c>
+      <c r="P9">
+        <v>0.4202272628991251</v>
+      </c>
+      <c r="Q9">
+        <v>23.16786988453</v>
+      </c>
+      <c r="R9">
+        <v>208.51082896077</v>
+      </c>
+      <c r="S9">
+        <v>0.02502759136654152</v>
+      </c>
+      <c r="T9">
+        <v>0.02502759136654153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8368233333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.51047</v>
+      </c>
+      <c r="I10">
+        <v>0.05955727668375805</v>
+      </c>
+      <c r="J10">
+        <v>0.05955727668375806</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.125957666666666</v>
+      </c>
+      <c r="N10">
+        <v>12.377873</v>
+      </c>
+      <c r="O10">
+        <v>0.06262628758663766</v>
+      </c>
+      <c r="P10">
+        <v>0.06262628758663766</v>
+      </c>
+      <c r="Q10">
+        <v>3.452697647812222</v>
+      </c>
+      <c r="R10">
+        <v>31.07427883031</v>
+      </c>
+      <c r="S10">
+        <v>0.003729851137473981</v>
+      </c>
+      <c r="T10">
+        <v>0.003729851137473982</v>
       </c>
     </row>
   </sheetData>
